--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H2">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1019996666666667</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="N2">
-        <v>0.305999</v>
+        <v>0.049481</v>
       </c>
       <c r="O2">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="P2">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="Q2">
-        <v>1.474171500430333</v>
+        <v>0.5012614262441112</v>
       </c>
       <c r="R2">
-        <v>13.267543503873</v>
+        <v>4.511352836197</v>
       </c>
       <c r="S2">
-        <v>0.006018717230923694</v>
+        <v>0.001294687171889756</v>
       </c>
       <c r="T2">
-        <v>0.006018717230923694</v>
+        <v>0.001294687171889756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H3">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.400925</v>
+        <v>0.133398</v>
       </c>
       <c r="N3">
-        <v>7.202775</v>
+        <v>0.400194</v>
       </c>
       <c r="O3">
-        <v>0.9592478079643895</v>
+        <v>0.04213708340045676</v>
       </c>
       <c r="P3">
-        <v>0.9592478079643894</v>
+        <v>0.04213708340045676</v>
       </c>
       <c r="Q3">
-        <v>34.699870355825</v>
+        <v>4.054118049642</v>
       </c>
       <c r="R3">
-        <v>312.298833202425</v>
+        <v>36.487062446778</v>
       </c>
       <c r="S3">
-        <v>0.1416719205061664</v>
+        <v>0.01047121194129563</v>
       </c>
       <c r="T3">
-        <v>0.1416719205061664</v>
+        <v>0.01047121194129563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.91529066666666</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H4">
-        <v>137.745872</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I4">
-        <v>0.4692032864180591</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J4">
-        <v>0.4692032864180591</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1019996666666667</v>
+        <v>3.015918333333333</v>
       </c>
       <c r="N4">
-        <v>0.305999</v>
+        <v>9.047754999999999</v>
       </c>
       <c r="O4">
-        <v>0.0407521920356106</v>
+        <v>0.9526529808590324</v>
       </c>
       <c r="P4">
-        <v>0.0407521920356106</v>
+        <v>0.9526529808590325</v>
       </c>
       <c r="Q4">
-        <v>4.68334434290311</v>
+        <v>91.65721338710389</v>
       </c>
       <c r="R4">
-        <v>42.15009908612799</v>
+        <v>824.9149204839349</v>
       </c>
       <c r="S4">
-        <v>0.01912106243184835</v>
+        <v>0.236737582767151</v>
       </c>
       <c r="T4">
-        <v>0.01912106243184835</v>
+        <v>0.236737582767151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H5">
         <v>137.745872</v>
       </c>
       <c r="I5">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J5">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.400925</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="N5">
-        <v>7.202775</v>
+        <v>0.049481</v>
       </c>
       <c r="O5">
-        <v>0.9592478079643895</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="P5">
-        <v>0.9592478079643894</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="Q5">
-        <v>110.2391692438667</v>
+        <v>0.7573114991591112</v>
       </c>
       <c r="R5">
-        <v>992.1525231948</v>
+        <v>6.815803492432001</v>
       </c>
       <c r="S5">
-        <v>0.4500822239862108</v>
+        <v>0.001956028195571571</v>
       </c>
       <c r="T5">
-        <v>0.4500822239862107</v>
+        <v>0.001956028195571571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.474929666666667</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
-        <v>4.424789000000001</v>
+        <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J6">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1019996666666667</v>
+        <v>0.133398</v>
       </c>
       <c r="N6">
-        <v>0.305999</v>
+        <v>0.400194</v>
       </c>
       <c r="O6">
-        <v>0.0407521920356106</v>
+        <v>0.04213708340045676</v>
       </c>
       <c r="P6">
-        <v>0.0407521920356106</v>
+        <v>0.04213708340045676</v>
       </c>
       <c r="Q6">
-        <v>0.1504423343567778</v>
+        <v>6.125007944352</v>
       </c>
       <c r="R6">
-        <v>1.353981009211</v>
+        <v>55.12507149916801</v>
       </c>
       <c r="S6">
-        <v>0.0006142228836937912</v>
+        <v>0.01582002683249266</v>
       </c>
       <c r="T6">
-        <v>0.0006142228836937912</v>
+        <v>0.01582002683249266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.474929666666667</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
-        <v>4.424789000000001</v>
+        <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J7">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.400925</v>
+        <v>3.015918333333333</v>
       </c>
       <c r="N7">
-        <v>7.202775</v>
+        <v>9.047754999999999</v>
       </c>
       <c r="O7">
-        <v>0.9592478079643895</v>
+        <v>0.9526529808590324</v>
       </c>
       <c r="P7">
-        <v>0.9592478079643894</v>
+        <v>0.9526529808590325</v>
       </c>
       <c r="Q7">
-        <v>3.541195509941667</v>
+        <v>138.4767669019289</v>
       </c>
       <c r="R7">
-        <v>31.870759589475</v>
+        <v>1246.29090211736</v>
       </c>
       <c r="S7">
-        <v>0.01445792055234673</v>
+        <v>0.3576658492476639</v>
       </c>
       <c r="T7">
-        <v>0.01445792055234673</v>
+        <v>0.357665849247664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.015061</v>
+        <v>2.332475</v>
       </c>
       <c r="H8">
-        <v>108.045183</v>
+        <v>6.997425</v>
       </c>
       <c r="I8">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J8">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1019996666666667</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="N8">
-        <v>0.305999</v>
+        <v>0.049481</v>
       </c>
       <c r="O8">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="P8">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="Q8">
-        <v>3.673524216979667</v>
+        <v>0.03847106515833334</v>
       </c>
       <c r="R8">
-        <v>33.061717952817</v>
+        <v>0.346239586425</v>
       </c>
       <c r="S8">
-        <v>0.01499818948914477</v>
+        <v>9.936530509166474E-05</v>
       </c>
       <c r="T8">
-        <v>0.01499818948914476</v>
+        <v>9.936530509166474E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.332475</v>
+      </c>
+      <c r="H9">
+        <v>6.997425</v>
+      </c>
+      <c r="I9">
+        <v>0.01907227076123622</v>
+      </c>
+      <c r="J9">
+        <v>0.01907227076123622</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.133398</v>
+      </c>
+      <c r="N9">
+        <v>0.400194</v>
+      </c>
+      <c r="O9">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="P9">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="Q9">
+        <v>0.31114750005</v>
+      </c>
+      <c r="R9">
+        <v>2.80032750045</v>
+      </c>
+      <c r="S9">
+        <v>0.0008036498637023034</v>
+      </c>
+      <c r="T9">
+        <v>0.0008036498637023036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>36.015061</v>
-      </c>
-      <c r="H9">
-        <v>108.045183</v>
-      </c>
-      <c r="I9">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="J9">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.400925</v>
-      </c>
-      <c r="N9">
-        <v>7.202775</v>
-      </c>
-      <c r="O9">
-        <v>0.9592478079643895</v>
-      </c>
-      <c r="P9">
-        <v>0.9592478079643894</v>
-      </c>
-      <c r="Q9">
-        <v>86.46946033142501</v>
-      </c>
-      <c r="R9">
-        <v>778.2251429828251</v>
-      </c>
-      <c r="S9">
-        <v>0.3530357429196655</v>
-      </c>
-      <c r="T9">
-        <v>0.3530357429196654</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.332475</v>
+      </c>
+      <c r="H10">
+        <v>6.997425</v>
+      </c>
+      <c r="I10">
+        <v>0.01907227076123622</v>
+      </c>
+      <c r="J10">
+        <v>0.01907227076123622</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.015918333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.047754999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9526529808590324</v>
+      </c>
+      <c r="P10">
+        <v>0.9526529808590325</v>
+      </c>
+      <c r="Q10">
+        <v>7.034554114541666</v>
+      </c>
+      <c r="R10">
+        <v>63.31098703087499</v>
+      </c>
+      <c r="S10">
+        <v>0.01816925559244225</v>
+      </c>
+      <c r="T10">
+        <v>0.01816925559244225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.657748</v>
+      </c>
+      <c r="H11">
+        <v>130.973244</v>
+      </c>
+      <c r="I11">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J11">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01649366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.049481</v>
+      </c>
+      <c r="O11">
+        <v>0.005209935740510855</v>
+      </c>
+      <c r="P11">
+        <v>0.005209935740510855</v>
+      </c>
+      <c r="Q11">
+        <v>0.7200763429293333</v>
+      </c>
+      <c r="R11">
+        <v>6.480687086363999</v>
+      </c>
+      <c r="S11">
+        <v>0.001859855067957863</v>
+      </c>
+      <c r="T11">
+        <v>0.001859855067957863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>43.657748</v>
+      </c>
+      <c r="H12">
+        <v>130.973244</v>
+      </c>
+      <c r="I12">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J12">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.133398</v>
+      </c>
+      <c r="N12">
+        <v>0.400194</v>
+      </c>
+      <c r="O12">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="P12">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="Q12">
+        <v>5.823856267704</v>
+      </c>
+      <c r="R12">
+        <v>52.414706409336</v>
+      </c>
+      <c r="S12">
+        <v>0.01504219476296617</v>
+      </c>
+      <c r="T12">
+        <v>0.01504219476296617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>43.657748</v>
+      </c>
+      <c r="H13">
+        <v>130.973244</v>
+      </c>
+      <c r="I13">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J13">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.015918333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.047754999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9526529808590324</v>
+      </c>
+      <c r="P13">
+        <v>0.9526529808590325</v>
+      </c>
+      <c r="Q13">
+        <v>131.6682025852467</v>
+      </c>
+      <c r="R13">
+        <v>1185.01382326722</v>
+      </c>
+      <c r="S13">
+        <v>0.3400802932517752</v>
+      </c>
+      <c r="T13">
+        <v>0.3400802932517753</v>
       </c>
     </row>
   </sheetData>
